--- a/Result/check3/2025-03-10.xlsx
+++ b/Result/check3/2025-03-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU31"/>
+  <dimension ref="A1:AU35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,17 +728,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2796</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-6.37</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>31.77</t>
+          <t>31.24</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>66.3</t>
+          <t>65.32</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>8341</t>
+          <t>8201</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>8072</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2335.485</t>
+          <t>1964.364</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -935,27 +935,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-3.75</t>
+          <t>-5.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>42.63</t>
+          <t>86.77</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2000.0</t>
+          <t>27.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -965,72 +965,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>2185</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-74.58</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-85.69</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1045,32 +1045,32 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-2162713270.0</t>
+          <t>-19003787.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>緯穎</t>
+          <t>陞泰</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1080,57 +1080,57 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>622.11</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.67</t>
+          <t>24.24</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>9.41%</t>
+          <t>15.01%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>124.87</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>356813</t>
+          <t>2424</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>資料中心產品100.00% (2024年)</t>
+          <t>視訊監視系統100.00% (2023年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>緯穎-電腦及週邊設備業-上市</t>
+          <t>陞泰-電子通路業-上市</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>474.62</t>
+          <t>28.56</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1152,17 +1152,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6667</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>408.0</t>
+          <t>2335.485</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1172,202 +1172,202 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-3.45</t>
+          <t>-3.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>42.63</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2000.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-8.4</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2208</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-1.61</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-74.58</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-85.69</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-10.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>188.5</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>12.73</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>502</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>71.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-303787.0</t>
+          <t>-2162713270.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>信紘科</t>
+          <t>緯穎</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>22.77</t>
+          <t>622.11</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>22.29</t>
+          <t>15.05</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>23.94%</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>13.59%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>34.46</t>
+          <t>121.73</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>9975</t>
+          <t>342875</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>工程95.66%、商品銷售3.86%、其他0.48% (2024年)</t>
+          <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>信紘科-其他電子業-上櫃</t>
+          <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>40.61</t>
+          <t>474.62</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1389,17 +1389,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4931</t>
+          <t>6667</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>59690.0</t>
+          <t>408.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1409,27 +1409,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>-3.45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>38.58</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>188.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1439,72 +1439,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>28564</t>
+          <t>1212</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1529,22 +1529,22 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>71</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>7250133.0</t>
+          <t>-303787.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>新盛力</t>
+          <t>信紘科</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1554,57 +1554,57 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>22.77</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>36.24</t>
+          <t>21.36</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>26.77%</t>
+          <t>23.94%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>9.25%</t>
+          <t>13.59%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>37.74</t>
+          <t>33.74</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>9559</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>鋰電池模組100.00% (2023年)</t>
+          <t>工程95.66%、商品銷售3.86%、其他0.48% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>新盛力-電腦及週邊設備業-上櫃</t>
+          <t>信紘科-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>17.92</t>
+          <t>40.61</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -1626,17 +1626,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4541</t>
+          <t>6606</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4586.0</t>
+          <t>118.187</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1646,27 +1646,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1676,37 +1676,37 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>42</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>46246</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1716,32 +1716,32 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1751,97 +1751,97 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>187981.0</t>
+          <t>4071443.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>晟田</t>
+          <t>建德工業</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>41.11</t>
+          <t>33.53</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>22.84%</t>
+          <t>34.77%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>13.57%</t>
+          <t>15.19%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>65.95</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3504</t>
+          <t>3403</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>航太零組件67.18%、半導體製程設備零組件19.84%、其他12.99% (2023年)</t>
+          <t>磨床及加工中心92.78%、零組件及其他7.22% (2023年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>晟田-其他-上櫃</t>
+          <t>建德工業-電機機械-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>23.98</t>
+          <t>16.64</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1863,17 +1863,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4420</t>
+          <t>4931</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>59690.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1883,27 +1883,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>38.58</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1913,72 +1913,72 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>13.97</t>
+          <t>10.92</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>94</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1373</t>
+          <t>33430</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1993,32 +1993,32 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-4765.0</t>
+          <t>7250133.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>光明</t>
+          <t>新盛力</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2028,57 +2028,57 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>31.62</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>36.28</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>1.69%</t>
+          <t>26.77%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1.95%</t>
+          <t>9.25%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>54.41</t>
+          <t>37.37</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>聚酯加工絲94.91%、租賃4.56%、加工業務0.50%、聚酯原絲0.03% (2023年)</t>
+          <t>鋰電池模組100.00% (2023年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>光明-紡織纖維-上櫃</t>
+          <t>新盛力-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>37.33</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -2100,17 +2100,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>4541</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17321.0</t>
+          <t>4586.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2120,27 +2120,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>32.10</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>65.7</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2150,57 +2150,57 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>26.92</t>
+          <t>20.82</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>88</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>38121</t>
+          <t>34247</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>-8.62</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2225,37 +2225,37 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1068830.0</t>
+          <t>187981.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>信立</t>
+          <t>晟田</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2265,57 +2265,57 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>38.49</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>9.30%</t>
+          <t>22.84%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>-26.59%</t>
+          <t>13.57%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>64.98</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>3281</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
+          <t>航太零組件67.18%、半導體製程設備零組件19.84%、其他12.99% (2023年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>信立-塑膠工業-上櫃</t>
+          <t>晟田-其他-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>塑膠工業右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2337,17 +2337,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4173</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>344.0</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2357,142 +2357,142 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-5.25</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>22.45</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>10.2</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>516</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-0.79</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>4539.0</t>
+          <t>-4765.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>光明</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2502,57 +2502,57 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>36.38</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>19.84</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>18.53%</t>
+          <t>1.69%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>8.80%</t>
+          <t>1.95%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>54.12</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>2391</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>聚酯加工絲94.91%、租賃4.56%、加工業務0.50%、聚酯原絲0.03% (2023年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>光明-紡織纖維-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>25.76</t>
+          <t>37.33</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -2574,17 +2574,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>752.443</t>
+          <t>17321.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2594,17 +2594,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>32.10</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>65.7</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2624,172 +2624,172 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>24.22</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>86</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>19058</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-5128649.0</t>
+          <t>1068830.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>永信</t>
+          <t>信立</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>43.91%</t>
+          <t>9.30%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>16.27%</t>
+          <t>-26.59%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>44.14</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>15026</t>
+          <t>6835</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>人用藥品-錠劑類27.95%、人用藥品-膠囊類18.01%、人用藥品-注射類9.09%、針劑類製劑等7.84%、食品膠囊類5.78%、代理其他產品4.88%、食品錠劑類4.34%、原物料4.25%、代工產品- 動物用藥散劑3.29%、代工-食品錠劑2.18%、代工-食品膠囊1.80%、人用藥品-軟膏類1.78%、代工- 食品散劑1.28%、其他非針劑製劑1.23%、人用藥品-液劑類1.10%、人用藥品-栓劑類0.81%、代工-人用注射0.78%、人用藥品-散劑0.70%、醫療器材0.65%、食品散劑類0.61%、動物用藥-散劑0.46%、人用藥品-顆粒類0.29%、代工-人用膠囊0.27%、化妝品 -液劑類0.15%、代工-人用錠劑0.14%、化�菻~-霜劑0.10%、代工-化妝品液劑0.07%、食品顆粒類0.06%、化妝品-其他0.04%、食品-液劑類0.02%、代工- 化妝品霜劑0.02%、面膜0.01%、食品-其他0.01% (2023年)</t>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>永信-生技醫療業-上市</t>
+          <t>信立-塑膠工業-上櫃</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>塑膠工業右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>28.78</t>
+          <t>25.03</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2811,17 +2811,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-3.56</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2006.262</t>
+          <t>344.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2831,27 +2831,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-3.19</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>19.92</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>203.0</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2861,57 +2861,57 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>11.26</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>798</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-3.10</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2921,12 +2921,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2936,97 +2936,97 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-292128959.0</t>
+          <t>4539.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>智易</t>
+          <t>久裕</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>54.85</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>20.08</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>15.36%</t>
+          <t>18.53%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>6.24%</t>
+          <t>8.80%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>128.54</t>
+          <t>89.2</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>49580</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
+          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>智易-通信網路業-上市</t>
+          <t>久裕-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>72.32</t>
+          <t>25.76</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3048,17 +3048,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>372.878</t>
+          <t>794.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3068,27 +3068,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>33.05</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3098,72 +3098,72 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>9255</t>
+          <t>556</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>-0.00</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3178,92 +3178,92 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-35422258.0</t>
+          <t>-28652.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>艾笛森</t>
+          <t>健喬</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>20.92</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>24.20%</t>
+          <t>43.05%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>5.39%</t>
+          <t>13.27%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>83.07</t>
+          <t>89.2</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>3741</t>
+          <t>15834</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
+          <t>自製產品72.13%、外購25.75%、其他2.12% (2023年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>艾笛森-光電業-上市</t>
+          <t>健喬-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3285,17 +3285,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3323</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17072.0</t>
+          <t>752.443</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3305,27 +3305,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14.97</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3335,172 +3335,172 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>11.14</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>9524</t>
+          <t>707</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>881339.0</t>
+          <t>-5128649.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>加百裕</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>14.51</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.69</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>8.79%</t>
+          <t>43.91%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>-1.80%</t>
+          <t>16.27%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>37.74</t>
+          <t>43.83</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>3780</t>
+          <t>15106</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>鋰電池組99.16%、其他0.84% (2023年)</t>
+          <t>人用藥品-錠劑類27.95%、人用藥品-膠囊類18.01%、人用藥品-注射類9.09%、針劑類製劑等7.84%、食品膠囊類5.78%、代理其他產品4.88%、食品錠劑類4.34%、原物料4.25%、代工產品- 動物用藥散劑3.29%、代工-食品錠劑2.18%、代工-食品膠囊1.80%、人用藥品-軟膏類1.78%、代工- 食品散劑1.28%、其他非針劑製劑1.23%、人用藥品-液劑類1.10%、人用藥品-栓劑類0.81%、代工-人用注射0.78%、人用藥品-散劑0.70%、醫療器材0.65%、食品散劑類0.61%、動物用藥-散劑0.46%、人用藥品-顆粒類0.29%、代工-人用膠囊0.27%、化妝品 -液劑類0.15%、代工-人用錠劑0.14%、化�菻~-霜劑0.10%、代工-化妝品液劑0.07%、食品顆粒類0.06%、化妝品-其他0.04%、食品-液劑類0.02%、代工- 化妝品霜劑0.02%、食品-其他0.01%、面膜0.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>加百裕-電腦及週邊設備業-上櫃</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>27.35</t>
+          <t>28.78</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3522,222 +3522,222 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>-3.56</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2006.262</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>22606.0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-0.74</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>30.15</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>190.5</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>6728</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>-0.42</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-2.30</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>54.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>5572836.0</t>
+          <t>-292128959.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>順達</t>
+          <t>智易</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>54.85</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>20.7</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>11.62%</t>
+          <t>15.36%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>4.09%</t>
+          <t>6.24%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>37.74</t>
+          <t>126.52</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>29673</t>
+          <t>51453</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
+          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>順達-電腦及週邊設備業-上櫃</t>
+          <t>智易-通信網路業-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>72.32</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -3759,17 +3759,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2492.071</t>
+          <t>372.878</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3779,142 +3779,142 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>27.19</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>12765</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>-14.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>28.25</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2073</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>132021064.0</t>
+          <t>-35422258.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>第一保</t>
+          <t>艾笛森</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3924,57 +3924,57 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>10.25</t>
+          <t>26.35</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>30.37%</t>
+          <t>24.20%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>8.19%</t>
+          <t>5.39%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>82.07</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>9261</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>簽單保費114.65%、再保險保費5.61%、再保佣金3.58%、利息收入2.42%、透過損益按公允價值衡量之金1.39%、透過其他綜合損益按公允價值1.16%、投資性不動產0.75%、手續費0.35%、投資兌換收益0.24%、兌換利益 -非投資0.15%、預期信用減損損失及迴轉利益0.10%、其他業務 -其他0.03% (2024年)</t>
+          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>第一保-金融保險-上市</t>
+          <t>艾笛森-光電業-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>28.88</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -3996,17 +3996,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4351.891</t>
+          <t>2054.32</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4016,102 +4016,102 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>31.53</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>67.7</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-5.33</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>16.4</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2528</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>261.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -4136,22 +4136,22 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>71</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>-161534.0</t>
+          <t>446402570.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>聯邦銀</t>
+          <t>安馳</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4161,57 +4161,57 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>18.49</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.51%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>70876</t>
+          <t>5123</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
+          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>聯邦銀-金融保險-上市</t>
+          <t>安馳-電子通路業-上市</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4233,17 +4233,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>495.801</t>
+          <t>17072.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4253,27 +4253,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>19.34</t>
+          <t>14.97</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>31.75</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4283,32 +4283,32 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>45</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1455</t>
+          <t>14313</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>-3.14</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -4318,37 +4318,37 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4358,97 +4358,97 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>56933200.0</t>
+          <t>881339.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>台產</t>
+          <t>加百裕</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>14.51</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>34.26%</t>
+          <t>8.79%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>12.99%</t>
+          <t>-1.80%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>37.37</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>12586</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+          <t>鋰電池組99.16%、其他0.84% (2023年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>台產-金融保險-上市</t>
+          <t>加百裕-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>27.35</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7276.418</t>
+          <t>22606.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4490,27 +4490,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>24.11</t>
+          <t>30.15</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20.55</t>
+          <t>190.5</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4520,57 +4520,57 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>5958</t>
+          <t>5027</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -4580,27 +4580,27 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -4610,82 +4610,82 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>202927608.0</t>
+          <t>5572836.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>順達</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>14.33</t>
+          <t>10.86</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11.62%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.09%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>37.37</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>118653</t>
+          <t>29139</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
+          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>順達-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>70.29</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4707,17 +4707,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2634</t>
+          <t>2852</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10625.519</t>
+          <t>2492.071</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4727,17 +4727,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>11.91</t>
+          <t>27.19</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>45.65</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4757,72 +4757,72 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>15.77</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>34932</t>
+          <t>1419</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4832,37 +4832,37 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>572064027.0</t>
+          <t>132021064.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>漢翔</t>
+          <t>第一保</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4872,57 +4872,57 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>26.97</t>
+          <t>10.27</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>8.39%</t>
+          <t>30.37%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>4.96%</t>
+          <t>8.19%</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>18.15</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>51049</t>
+          <t>9276</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>飛機及航空器維修類59.69%、引擎30.34%、工業技術服務類9.98% (2023年)</t>
+          <t>簽單保費114.65%、再保險保費5.61%、再保佣金3.58%、利息收入2.42%、透過損益按公允價值衡量之金1.39%、透過其他綜合損益按公允價值1.16%、投資性不動產0.75%、手續費0.35%、投資兌換收益0.24%、兌換利益 -非投資0.15%、預期信用減損損失及迴轉利益0.10%、其他業務 -其他0.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>漢翔-航運業-上市</t>
+          <t>第一保-金融保險-上市</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>18.5</t>
+          <t>28.88</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -4944,17 +4944,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19008.417</t>
+          <t>4351.891</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4964,202 +4964,202 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>31.53</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>16.4</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>3357</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>-1.73</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>-161534.0</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>聯邦銀</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>16443</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>-0.64</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>-8.0</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>2244765381.0</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>陽明</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>15.31</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>30.48%</t>
-        </is>
-      </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>24.77%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>18.15</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>270289</t>
+          <t>70066</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
+          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>聯邦銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>97.52</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -5181,17 +5181,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>674.387</t>
+          <t>495.801</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5201,142 +5201,142 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>19.34</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>30.45</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>1067</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>-23535258.0</t>
+          <t>56933200.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>榮運</t>
+          <t>台產</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -5346,57 +5346,57 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>20.90%</t>
+          <t>34.26%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>12.07%</t>
+          <t>12.99%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>18.15</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>34522</t>
+          <t>12605</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
+          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>榮運-航運業-上市</t>
+          <t>台產-金融保險-上市</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -5418,17 +5418,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14609.715</t>
+          <t>7276.418</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5438,202 +5438,202 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>24.11</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>8612</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>224.5</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>202927608.0</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>台中銀</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>8084</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>4764730849.0</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>長榮</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>14.13</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>53.49</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>35.32%</t>
-        </is>
-      </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>29.75%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>18.15</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>497960</t>
+          <t>118929</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>台中銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>268.04</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5655,17 +5655,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2547</t>
+          <t>2634</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15297.762</t>
+          <t>10625.519</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5675,17 +5675,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>18.30</t>
+          <t>11.91</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5695,7 +5695,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>45.65</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5705,72 +5705,72 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>150</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>6484</t>
+          <t>27370</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>-4.39</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>133.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -5790,27 +5790,27 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>275449485.0</t>
+          <t>572064027.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>日勝生</t>
+          <t>漢翔</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5820,57 +5820,57 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.78</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>49.27%</t>
+          <t>8.39%</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>24.39%</t>
+          <t>4.96%</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>49.91</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>14388</t>
+          <t>49354</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>日鼎水務-桃園污水下水道BOT24.35%、寶鼎-桃園水資源回收中心再18.59%、日勝生-板橋浮洲合宜住宅案14.40%、百貨13.29%、營業租賃11.02%、其他9.90%、飯店服務4.79%、營建工程2.46%、勞務1.14%、日勝生-新店美河市案0.06% (2023年)</t>
+          <t>飛機及航空器維修類59.69%、引擎30.34%、工業技術服務類9.98% (2023年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>日勝生-建材營造-上市</t>
+          <t>漢翔-航運業-上市</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>18.5</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -5892,17 +5892,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10288.854</t>
+          <t>19008.417</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5912,17 +5912,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -5942,37 +5942,37 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>188</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>20059</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -5982,17 +5982,17 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -6002,12 +6002,12 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>235.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -6022,32 +6022,32 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>1248499381.0</t>
+          <t>2244765381.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -6057,57 +6057,57 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>19.15</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>24.79%</t>
+          <t>30.48%</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>12.81%</t>
+          <t>24.77%</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>184.39</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>44275</t>
+          <t>267495</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
+          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>創見-半導體業-上市</t>
+          <t>陽明-航運業-上市</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>46.12</t>
+          <t>97.52</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
@@ -6129,17 +6129,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20759.947</t>
+          <t>674.387</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6149,27 +6149,27 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>45.67</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>46.75</t>
+          <t>30.45</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -6179,72 +6179,72 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>28.52</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>11659</t>
+          <t>1832</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>236.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -6254,37 +6254,37 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>3817033821.0</t>
+          <t>-23535258.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>榮運</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -6294,57 +6294,57 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>4.82%</t>
+          <t>20.90%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>-27.51%</t>
+          <t>12.07%</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>83.07</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>5477</t>
+          <t>34522</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>榮運-航運業-上市</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -6366,17 +6366,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1092.237</t>
+          <t>14609.715</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6386,27 +6386,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>11.33</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>19.55</t>
+          <t>224.5</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6416,72 +6416,72 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>248</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>15874</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -6506,22 +6506,22 @@
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>72829260.0</t>
+          <t>4764730849.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>春源</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6531,57 +6531,57 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>14.35</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>53.49</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>9.03%</t>
+          <t>35.32%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>29.75%</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>13601</t>
+          <t>490382</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
+          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>春源-鋼鐵工業-上市</t>
+          <t>長榮-航運業-上市</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>268.04</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6603,222 +6603,222 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>2547</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15297.762</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>114.587</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>20.15</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>6434</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>275449485.0</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>日勝生</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>775</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>-0.68</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>-5607646.0</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>年興</t>
-        </is>
-      </c>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>18.69</t>
-        </is>
-      </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>11.83%</t>
+          <t>49.27%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>3.32%</t>
+          <t>24.39%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>62.68</t>
+          <t>50.04</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>4518</t>
+          <t>14750</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>成衣52.43%、紡織品46.20%、其他1.37% (2024年)</t>
+          <t>日鼎水務-桃園污水下水道BOT24.35%、寶鼎-桃園水資源回收中心再18.59%、日勝生-板橋浮洲合宜住宅案14.40%、百貨13.29%、營業租賃11.02%、其他9.90%、飯店服務4.79%、營建工程2.46%、勞務1.14%、日勝生-新店美河市案0.06% (2023年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>年興-紡織纖維-上市</t>
+          <t>日勝生-建材營造-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>34.75</t>
+          <t>11.67</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -6840,17 +6840,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10138.939</t>
+          <t>10288.854</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6860,17 +6860,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>33.4</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -6890,72 +6890,72 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>7068</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>235.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -6970,32 +6970,32 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>485490424.0</t>
+          <t>1248499381.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>遠東新</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -7005,57 +7005,57 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>13.22</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>18.16</t>
+          <t>19.52</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>19.43%</t>
+          <t>24.79%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>6.50%</t>
+          <t>12.81%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>62.68</t>
+          <t>181.53</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>181730</t>
+          <t>45135</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
+          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>遠東新-紡織纖維-上市</t>
+          <t>創見-半導體業-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>43.67</t>
+          <t>46.12</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7077,17 +7077,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1336</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>483.0</t>
+          <t>20759.947</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7097,27 +7097,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>45.67</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>25.25</t>
+          <t>46.75</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7127,72 +7127,72 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>26.61</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>9552</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>236.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -7207,92 +7207,92 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>71</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>20470.0</t>
+          <t>3817033821.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>台翰</t>
+          <t>銘旺科</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>12.62</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>16.16%</t>
+          <t>4.82%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>8.80%</t>
+          <t>-27.51%</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>66.3</t>
+          <t>82.07</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>2075</t>
+          <t>5335</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>台翰-電子零組件業-上櫃</t>
+          <t>銘旺科-光電業-上市</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>24.9</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7314,162 +7314,162 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1092.237</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>6967.388</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-2.43</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>27.08</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>122.0</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>4556</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>-0.72</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>-966597023.0</t>
+          <t>72829260.0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>東陽</t>
+          <t>春源</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -7479,57 +7479,57 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>17.97</t>
+          <t>12.79</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>34.51%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>19.30%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>43.96</t>
+          <t>41.47</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>78666</t>
+          <t>13666</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>自製-零組件84.81%、外購產品12.31%、其他2.88% (2024年)</t>
+          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>東陽-汽車工業-上市</t>
+          <t>春源-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>46.68</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
@@ -7551,230 +7551,1178 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>114.587</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>-1.37</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>-5607646.0</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>年興</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>紡織纖維</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>11.83%</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>3.32%</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>62.73</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>4487</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>成衣52.43%、紡織品46.20%、其他1.37% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>年興-紡織纖維-上市</t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>紡織纖維右上</t>
+        </is>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10138.939</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>33.4</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>4683</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>485490424.0</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>遠東新</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>紡織纖維</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>19.43%</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>6.50%</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>62.73</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>183336</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>遠東新-紡織纖維-上市</t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>紡織纖維右上</t>
+        </is>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>43.67</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1336</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>483.0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1413</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>-5.23</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>20470.0</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>台翰</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>16.16%</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>8.80%</t>
+        </is>
+      </c>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>65.32</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>台翰-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6967.388</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-2.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>-966597023.0</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>東陽</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>汽車工業</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>11.7</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>34.51%</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>19.30%</t>
+        </is>
+      </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>43.57</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>80145</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>自製-零組件84.81%、外購產品12.31%、其他2.88% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>東陽-汽車工業-上市</t>
+        </is>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>汽車工業右上</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>46.68</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>1102</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>6215.838</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>0.33</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>12.17</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>0.89</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>44.05</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>13317</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>15327</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
         <is>
           <t>0.86</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>0.24</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>0.46</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>0.53</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
         <is>
           <t>-9.0</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Y35" t="inlineStr">
         <is>
           <t>24.0</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="Z35" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AA35" t="inlineStr">
         <is>
           <t>-2.0</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AB35" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="AE31" t="inlineStr">
+      <c r="AE35" t="inlineStr">
         <is>
           <t>731650295.0</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr">
+      <c r="AF35" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AG31" t="inlineStr">
+      <c r="AG35" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AH31" t="inlineStr">
+      <c r="AH35" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
         <is>
           <t>6.01</t>
         </is>
       </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>12.84</t>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
         <is>
           <t>17.30%</t>
         </is>
       </c>
-      <c r="AM31" t="inlineStr">
+      <c r="AM35" t="inlineStr">
         <is>
           <t>15.00%</t>
         </is>
       </c>
-      <c r="AN31" t="inlineStr">
-        <is>
-          <t>19.87</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>165270</t>
-        </is>
-      </c>
-      <c r="AP31" t="inlineStr">
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>167220</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AQ31" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AR35" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AS31" t="inlineStr">
+      <c r="AS35" t="inlineStr">
         <is>
           <t>51.13</t>
         </is>
       </c>
-      <c r="AT31" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU31" t="inlineStr">
+      <c r="AU35" t="inlineStr">
         <is>
           <t>Y</t>
         </is>

--- a/Result/check3/2025-03-10.xlsx
+++ b/Result/check3/2025-03-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU35"/>
+  <dimension ref="A1:AV31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,6 +669,11 @@
           <t>flag</t>
         </is>
       </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>desc</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -678,17 +683,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8155</t>
+          <t>9927</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1785.0</t>
+          <t>342.283</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -698,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14.47</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>136.5</t>
+          <t>70.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -728,77 +733,77 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>606</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.37</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>197.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -808,92 +813,92 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>725813.0</t>
+          <t>46981893.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>博智</t>
+          <t>泰銘</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>12.27</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>31.24</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>15.82%</t>
+          <t>11.80%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>7.06%</t>
+          <t>8.37%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>65.32</t>
+          <t>32.65</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>8201</t>
+          <t>12599</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>印刷電路板(PCB)97.26%、樣品及其他2.74% (2024年)</t>
+          <t>鉛合金錠85.00%、鉛錠7.05%、黃紅丹成品6.69%、勞務0.63%、其他0.62% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>博智-電子零組件業-上櫃</t>
+          <t>泰銘-其他-上市</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>43.21</t>
+          <t>39.27</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -904,6 +909,11 @@
       <c r="AU2" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -945,7 +955,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>65.61</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2185</t>
+          <t>2994</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -990,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1020,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1050,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1080,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1090,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>23.72</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1105,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>15.94</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2424</t>
+          <t>2372</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1141,6 +1151,11 @@
       <c r="AU3" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -1202,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-8.4</t>
+          <t>-13.96</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>158</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>2442</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1222,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-3.70</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1257,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1317,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1327,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>15.05</t>
+          <t>14.32</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1342,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>121.73</t>
+          <t>117.89</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>342875</t>
+          <t>326149</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1378,6 +1393,11 @@
       <c r="AU4" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
       </c>
     </row>
@@ -1389,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6667</t>
+          <t>6606</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>408.0</t>
+          <t>118.187</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1409,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-3.45</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1429,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>188.5</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1439,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>-6.36</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>1131</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1519,92 +1539,92 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-303787.0</t>
+          <t>4071443.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>信紘科</t>
+          <t>建德工業</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>22.77</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>21.36</t>
+          <t>29.08</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>23.94%</t>
+          <t>34.77%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>13.59%</t>
+          <t>15.19%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>33.74</t>
+          <t>37.17</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>9559</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>工程95.66%、商品銷售3.86%、其他0.48% (2024年)</t>
+          <t>磨床及加工中心92.78%、零組件及其他7.22% (2023年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>信紘科-其他電子業-上櫃</t>
+          <t>建德工業-電機機械-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>40.61</t>
+          <t>16.64</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1614,7 +1634,12 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 金屬加工用機械、自動販賣機</t>
         </is>
       </c>
     </row>
@@ -1626,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6606</t>
+          <t>4931</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>118.187</t>
+          <t>59690.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1646,117 +1671,117 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>38.58</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>80.8</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39774</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-2.27</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>0.60</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>-8.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>28.45</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1237</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-11.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1766,82 +1791,82 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>4071443.0</t>
+          <t>7250133.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>建德工業</t>
+          <t>新盛力</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>33.53</t>
+          <t>34.8</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>34.77%</t>
+          <t>26.77%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>15.19%</t>
+          <t>9.25%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>36.26</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3403</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>磨床及加工中心92.78%、零組件及其他7.22% (2023年)</t>
+          <t>鋰電池模組100.00% (2023年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>建德工業-電機機械-上市</t>
+          <t>新盛力-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>16.64</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1852,6 +1877,11 @@
       <c r="AU6" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 電池** 雲端運算 - 電力設備** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 能源元件 - 電池模組</t>
         </is>
       </c>
     </row>
@@ -1863,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4931</t>
+          <t>4541</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>59690.0</t>
+          <t>4586.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1883,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>38.58</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1913,57 +1943,57 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>10.92</t>
+          <t>27.95</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>33430</t>
+          <t>48317</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1973,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1988,37 +2018,37 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>7250133.0</t>
+          <t>187981.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>新盛力</t>
+          <t>晟田</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2028,57 +2058,57 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>36.28</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>26.77%</t>
+          <t>22.84%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>9.25%</t>
+          <t>13.57%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>37.37</t>
+          <t>65.22</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>鋰電池模組100.00% (2023年)</t>
+          <t>航太零組件67.18%、半導體製程設備零組件19.84%、其他12.99% (2023年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>新盛力-電腦及週邊設備業-上櫃</t>
+          <t>晟田-其他-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>17.92</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2089,6 +2119,11 @@
       <c r="AU7" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -2100,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4541</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4586.0</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2120,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2150,72 +2185,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>20.82</t>
+          <t>-7.93</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>34247</t>
+          <t>853</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-8.62</t>
+          <t>-6.64</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2225,12 +2260,12 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2240,22 +2275,22 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>187981.0</t>
+          <t>-4765.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>晟田</t>
+          <t>光明</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2265,57 +2300,57 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>39.67</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>38.49</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>22.84%</t>
+          <t>1.69%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>13.57%</t>
+          <t>1.95%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>64.98</t>
+          <t>53.25</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>3281</t>
+          <t>2193</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>航太零組件67.18%、半導體製程設備零組件19.84%、其他12.99% (2023年)</t>
+          <t>聚酯加工絲94.91%、租賃4.56%、加工業務0.50%、聚酯原絲0.03% (2023年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>晟田-其他-上櫃</t>
+          <t>光明-紡織纖維-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>23.98</t>
+          <t>37.33</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2325,7 +2360,12 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>** 紡織 - 人造纖維產品(例如尼龍纖維、聚酯纖維、嫘縈纖維等)</t>
         </is>
       </c>
     </row>
@@ -2337,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4420</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>17321.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2357,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>32.10</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>65.7</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2387,42 +2427,42 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>26.01</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>156</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>32824</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-5.25</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2432,27 +2472,27 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2467,32 +2507,32 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>-4765.0</t>
+          <t>1068830.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>光明</t>
+          <t>信立</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2502,57 +2542,57 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>36.38</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>1.69%</t>
+          <t>9.30%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1.95%</t>
+          <t>-26.59%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>54.12</t>
+          <t>10.93</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>2391</t>
+          <t>7001</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>聚酯加工絲94.91%、租賃4.56%、加工業務0.50%、聚酯原絲0.03% (2023年)</t>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>光明-紡織纖維-上櫃</t>
+          <t>信立-塑膠工業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>塑膠工業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>37.33</t>
+          <t>25.03</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2562,7 +2602,12 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>** 石化及塑橡膠 - 塑膠製品、人造纖維</t>
         </is>
       </c>
     </row>
@@ -2574,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17321.0</t>
+          <t>794.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2594,17 +2639,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>32.10</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2614,7 +2659,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>65.7</t>
+          <t>33.05</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2624,72 +2669,72 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>24.22</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>37</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>19058</t>
+          <t>2423</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2704,32 +2749,32 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1068830.0</t>
+          <t>-28652.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>信立</t>
+          <t>健喬</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2739,57 +2784,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>20.98</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>9.30%</t>
+          <t>42.58%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>-26.59%</t>
+          <t>12.46%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>87.79</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>6835</t>
+          <t>15880</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
+          <t>自製產品72.13%、外購25.75%、其他2.12% (2023年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>信立-塑膠工業-上櫃</t>
+          <t>健喬-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>塑膠工業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>17.16</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2800,6 +2845,11 @@
       <c r="AU10" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>** 製藥 - 中、西藥製劑、藥品代理銷售及通路</t>
         </is>
       </c>
     </row>
@@ -2811,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4173</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>344.0</t>
+          <t>752.443</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2831,137 +2881,137 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>54.7</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1705</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>22.45</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>11.26</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>798</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>4539.0</t>
+          <t>-5128649.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>久裕</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2971,52 +3021,52 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>20.08</t>
+          <t>14.69</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>18.53%</t>
+          <t>43.91%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>8.80%</t>
+          <t>16.27%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>89.2</t>
+          <t>42.92</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>15106</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>推廣63.39%、經銷物流服務36.61% (2023年)</t>
+          <t>人用藥品-錠劑類27.95%、人用藥品-膠囊類18.01%、人用藥品-注射類9.09%、針劑類製劑等7.84%、食品膠囊類5.78%、代理其他產品4.88%、食品錠劑類4.34%、原物料4.25%、代工產品- 動物用藥散劑3.29%、代工-食品錠劑2.18%、代工-食品膠囊1.80%、人用藥品-軟膏類1.78%、代工- 食品散劑1.28%、其他非針劑製劑1.23%、人用藥品-液劑類1.10%、人用藥品-栓劑類0.81%、代工-人用注射0.78%、人用藥品-散劑0.70%、醫療器材0.65%、食品散劑類0.61%、動物用藥-散劑0.46%、人用藥品-顆粒類0.29%、代工-人用膠囊0.27%、化妝品 -液劑類0.15%、代工-人用錠劑0.14%、化�菻~-霜劑0.10%、代工-化妝品液劑0.07%、食品顆粒類0.06%、化妝品-其他0.04%、食品-液劑類0.02%、代工- 化妝品霜劑0.02%、食品-其他0.01%、面膜0.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>久裕-生技醫療業-上櫃</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
@@ -3026,7 +3076,7 @@
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>25.76</t>
+          <t>28.78</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3037,6 +3087,11 @@
       <c r="AU11" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>** 製藥 - 中、西藥製劑</t>
         </is>
       </c>
     </row>
@@ -3048,222 +3103,222 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4114</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>-3.56</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2006.262</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2907</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-2.38</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>794.0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>33.05</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>556</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>-0.17</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-0.20</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-28652.0</t>
+          <t>-292128959.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>健喬</t>
+          <t>智易</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>54.85</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>20.92</t>
+          <t>20.3</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>43.05%</t>
+          <t>15.36%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>13.27%</t>
+          <t>6.24%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>89.2</t>
+          <t>122.77</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>15834</t>
+          <t>50461</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>自製產品72.13%、外購25.75%、其他2.12% (2023年)</t>
+          <t>智慧家庭類產品45.95%、行動通訊產品32.94%、寬頻固網18.21%、其他2.90% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>健喬-生技醫療業-上櫃</t>
+          <t>智易-通信網路業-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>72.32</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3273,7 +3328,12 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)</t>
         </is>
       </c>
     </row>
@@ -3285,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>752.443</t>
+          <t>372.878</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3305,142 +3365,142 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>10334</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-5.66</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>-14.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>54.7</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>707</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>58.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-5128649.0</t>
+          <t>-35422258.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>永信</t>
+          <t>艾笛森</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3450,57 +3510,57 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>14.69</t>
+          <t>24.65</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>43.91%</t>
+          <t>24.20%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>16.27%</t>
+          <t>5.39%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>43.83</t>
+          <t>79.18</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>15106</t>
+          <t>3589</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>人用藥品-錠劑類27.95%、人用藥品-膠囊類18.01%、人用藥品-注射類9.09%、針劑類製劑等7.84%、食品膠囊類5.78%、代理其他產品4.88%、食品錠劑類4.34%、原物料4.25%、代工產品- 動物用藥散劑3.29%、代工-食品錠劑2.18%、代工-食品膠囊1.80%、人用藥品-軟膏類1.78%、代工- 食品散劑1.28%、其他非針劑製劑1.23%、人用藥品-液劑類1.10%、人用藥品-栓劑類0.81%、代工-人用注射0.78%、人用藥品-散劑0.70%、醫療器材0.65%、食品散劑類0.61%、動物用藥-散劑0.46%、人用藥品-顆粒類0.29%、代工-人用膠囊0.27%、化妝品 -液劑類0.15%、代工-人用錠劑0.14%、化�菻~-霜劑0.10%、代工-化妝品液劑0.07%、食品顆粒類0.06%、化妝品-其他0.04%、食品-液劑類0.02%、代工- 化妝品霜劑0.02%、食品-其他0.01%、面膜0.01% (2023年)</t>
+          <t>LED照明50.66%、LED車用產品43.49%、傳感器元件4.78%、其他1.07% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>永信-生技醫療業-上市</t>
+          <t>艾笛森-光電業-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>28.78</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3510,7 +3570,12 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>** LED照明產業 - 封裝/模組、燈具/應用</t>
         </is>
       </c>
     </row>
@@ -3522,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-3.56</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2006.262</t>
+          <t>17072.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3542,27 +3607,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-3.19</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>19.92</t>
+          <t>14.97</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>203.0</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3572,84 +3637,84 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>13.06</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>40</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>5208</t>
+          <t>10090</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>-3.96</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
           <t>2025-03-04</t>
@@ -3662,82 +3727,82 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-292128959.0</t>
+          <t>881339.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>智易</t>
+          <t>加百裕</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>54.85</t>
+          <t>14.51</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>15.36%</t>
+          <t>8.79%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>6.24%</t>
+          <t>-1.80%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>126.52</t>
+          <t>36.26</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>51453</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
+          <t>鋰電池組99.16%、其他0.84% (2023年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>智易-通信網路業-上市</t>
+          <t>加百裕-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>72.32</t>
+          <t>27.35</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3747,7 +3812,12 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 電池** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 能源元件 - 電池模組</t>
         </is>
       </c>
     </row>
@@ -3759,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>372.878</t>
+          <t>702.414</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3779,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>10.58</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>30.45</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3809,67 +3879,67 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>12765</t>
+          <t>518</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>-2.43</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3879,22 +3949,22 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -3904,12 +3974,12 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>-35422258.0</t>
+          <t>17664815.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>艾笛森</t>
+          <t>力特</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -3924,57 +3994,57 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>26.35</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>24.20%</t>
+          <t>39.20%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>5.39%</t>
+          <t>21.61%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>82.07</t>
+          <t>79.18</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>3784</t>
+          <t>5214</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
+          <t>薄膜電晶體液晶顯示器(TFT-LC80.99%、TN/STN19.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>艾笛森-光電業-上市</t>
+          <t>力特-光電業-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -3984,7 +4054,12 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>** 平面顯示器 - 其他零組件</t>
         </is>
       </c>
     </row>
@@ -3996,17 +4071,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>2852</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2054.32</t>
+          <t>2492.071</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4016,27 +4091,27 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>27.19</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>67.7</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4046,57 +4121,57 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>11.96</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -4106,12 +4181,12 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>261.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -4126,32 +4201,32 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>446402570.0</t>
+          <t>132021064.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>安馳</t>
+          <t>第一保</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4161,57 +4236,57 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>18.49</t>
+          <t>10.18</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>30.37%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>1.51%</t>
+          <t>8.19%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>5123</t>
+          <t>9201</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
+          <t>簽單保費114.65%、再保險保費5.61%、再保佣金3.58%、利息收入2.42%、透過損益按公允價值衡量之金1.39%、透過其他綜合損益按公允價值1.16%、投資性不動產0.75%、手續費0.35%、投資兌換收益0.24%、兌換利益 -非投資0.15%、預期信用減損損失及迴轉利益0.10%、其他業務 -其他0.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>安馳-電子通路業-上市</t>
+          <t>第一保-金融保險-上市</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>29.54</t>
+          <t>28.88</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4222,6 +4297,11 @@
       <c r="AU16" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -4233,17 +4313,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3323</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17072.0</t>
+          <t>4351.891</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4253,27 +4333,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>14.97</t>
+          <t>31.53</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>16.4</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4283,57 +4363,57 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>518</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>14313</t>
+          <t>2612</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-3.14</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -4343,12 +4423,12 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4358,12 +4438,12 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -4373,82 +4453,82 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>881339.0</t>
+          <t>-161534.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>加百裕</t>
+          <t>聯邦銀</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>14.51</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>8.79%</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>-1.80%</t>
-        </is>
-      </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>37.37</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>69864</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>鋰電池組99.16%、其他0.84% (2023年)</t>
+          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>加百裕-電腦及週邊設備業-上櫃</t>
+          <t>聯邦銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>27.35</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4459,6 +4539,11 @@
       <c r="AU17" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>** 金融 - 金控業/銀行業/保險業、證券業</t>
         </is>
       </c>
     </row>
@@ -4470,222 +4555,222 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>495.801</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>22606.0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-0.74</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>30.15</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>190.5</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>5027</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>-0.51</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>-0.42</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>-2.30</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>54.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>5572836.0</t>
+          <t>56933200.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>順達</t>
+          <t>台產</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>10.86</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>11.62%</t>
+          <t>34.26%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>4.09%</t>
+          <t>12.99%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>37.37</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>29139</t>
+          <t>12532</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
+          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>順達-電腦及週邊設備業-上櫃</t>
+          <t>台產-金融保險-上市</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4696,6 +4781,11 @@
       <c r="AU18" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -4707,17 +4797,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2492.071</t>
+          <t>7276.418</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4727,192 +4817,192 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>27.19</t>
+          <t>24.11</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1,161</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>11198</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>-0.94</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>28.25</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>202927608.0</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>台中銀</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>14.1</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>1419</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>132021064.0</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>第一保</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>金融保險</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>10.27</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>30.37%</t>
-        </is>
-      </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>8.19%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>9276</t>
+          <t>116722</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>簽單保費114.65%、再保險保費5.61%、再保佣金3.58%、利息收入2.42%、透過損益按公允價值衡量之金1.39%、透過其他綜合損益按公允價值1.16%、投資性不動產0.75%、手續費0.35%、投資兌換收益0.24%、兌換利益 -非投資0.15%、預期信用減損損失及迴轉利益0.10%、其他業務 -其他0.03% (2024年)</t>
+          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>第一保-金融保險-上市</t>
+          <t>台中銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
@@ -4922,7 +5012,7 @@
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>28.88</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -4933,6 +5023,11 @@
       <c r="AU19" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>** 金融 - 金控業/銀行業/保險業、證券業、租賃業</t>
         </is>
       </c>
     </row>
@@ -4944,17 +5039,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>2634</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4351.891</t>
+          <t>10625.519</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4964,27 +5059,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>31.53</t>
+          <t>11.91</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>16.4</t>
+          <t>45.65</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4994,72 +5089,72 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>13.54</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>246</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3357</t>
+          <t>52077</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -5069,37 +5164,37 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>-161534.0</t>
+          <t>572064027.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>聯邦銀</t>
+          <t>漢翔</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -5109,57 +5204,57 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>14.07</t>
+          <t>22.96</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.44%</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.52%</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>17.61</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>70066</t>
+          <t>49731</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
+          <t>飛機及航空器維修類59.69%、引擎30.34%、工業技術服務類9.98% (2023年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>聯邦銀-金融保險-上市</t>
+          <t>漢翔-航運業-上市</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -5170,6 +5265,11 @@
       <c r="AU20" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -5181,17 +5281,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>495.801</t>
+          <t>19008.417</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5201,102 +5301,102 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>19005</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>19.34</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>31.75</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>853</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>-1.86</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5311,7 +5411,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -5321,22 +5421,22 @@
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>56933200.0</t>
+          <t>2244765381.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>台產</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -5346,57 +5446,57 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>34.26%</t>
+          <t>30.48%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>12.99%</t>
+          <t>24.77%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>17.61</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>12605</t>
+          <t>262606</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>台產-金融保險-上市</t>
+          <t>陽明-航運業-上市</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>97.52</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5407,6 +5507,11 @@
       <c r="AU21" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
       </c>
     </row>
@@ -5418,122 +5523,122 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>674.387</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7276.418</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>24.11</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>20.55</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>8612</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -5543,37 +5648,37 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>202927608.0</t>
+          <t>-23535258.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>榮運</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -5583,57 +5688,57 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>12.31</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20.90%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.07%</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>17.61</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>118929</t>
+          <t>34149</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
+          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>榮運-航運業-上市</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5643,7 +5748,12 @@
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>** 交通運輸及航運 - 貨櫃航運、海陸空貨運承攬、貨櫃運輸集散及倉儲、海陸空大眾運輸</t>
         </is>
       </c>
     </row>
@@ -5655,17 +5765,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2634</t>
+          <t>2534</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10625.519</t>
+          <t>603.029</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5675,142 +5785,142 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>11.91</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>45.65</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>12.88</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>27370</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>-4.39</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>43.0</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>572064027.0</t>
+          <t>13625208.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>漢翔</t>
+          <t>宏盛</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5820,57 +5930,57 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>22.78</t>
+          <t>41.67</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>8.39%</t>
+          <t>39.26%</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>4.96%</t>
+          <t>31.23%</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>48.75</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>49354</t>
+          <t>12448</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>飛機及航空器維修類59.69%、引擎30.34%、工業技術服務類9.98% (2023年)</t>
+          <t>住宅大樓85.87%、其他14.13% (2023年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>漢翔-航運業-上市</t>
+          <t>宏盛-建材營造-上市</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>18.5</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -5881,6 +5991,11 @@
       <c r="AU23" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -5892,17 +6007,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>19008.417</t>
+          <t>10288.854</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5912,17 +6027,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5932,7 +6047,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -5942,37 +6057,37 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>20059</t>
+          <t>1184</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -5982,17 +6097,17 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -6002,12 +6117,12 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>235.0</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -6022,7 +6137,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -6032,22 +6147,22 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2244765381.0</t>
+          <t>1248499381.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -6057,57 +6172,57 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>15.31</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>18.96</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>30.48%</t>
+          <t>24.79%</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>24.77%</t>
+          <t>12.81%</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>173.06</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>267495</t>
+          <t>43845</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
+          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>創見-半導體業-上市</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>97.52</t>
+          <t>46.12</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
@@ -6118,6 +6233,11 @@
       <c r="AU24" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>** 半導體 - IC模組** 電腦及週邊設備 - 記憶體、隨身碟、記憶卡讀卡機</t>
         </is>
       </c>
     </row>
@@ -6129,222 +6249,222 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20759.947</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-1.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>46.75</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>6409</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
           <t>0.16</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>674.387</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>3817033821.0</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>銘旺科</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-0.49</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>30.45</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>1832</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>-23535258.0</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>榮運</t>
-        </is>
-      </c>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>12.44</t>
-        </is>
-      </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>20.90%</t>
+          <t>4.82%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>12.07%</t>
+          <t>-27.51%</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>79.18</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>34522</t>
+          <t>5385</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>榮運-航運業-上市</t>
+          <t>銘旺科-光電業-上市</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -6354,7 +6474,12 @@
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>** 平面顯示器 - 其他零組件** 觸控面板 - 觸控面板</t>
         </is>
       </c>
     </row>
@@ -6366,17 +6491,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>14609.715</t>
+          <t>1092.237</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6386,142 +6511,142 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>-2.18</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>224.5</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>15874</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>-1.10</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>4764730849.0</t>
+          <t>72829260.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>春源</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6531,57 +6656,57 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>14.35</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>53.49</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>35.32%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>29.75%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>40.68</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>490382</t>
+          <t>13342</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>春源-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>268.04</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6592,6 +6717,11 @@
       <c r="AU26" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>** 鋼鐵 - 冷熱軋鋼板捲、棒鋼盤元(捲狀條鋼)、冷熱軋不鏽鋼板捲、不鏽鋼棒線、裁剪加工、金屬製品、模具、建築工程** 建材營造 - 結構工程</t>
         </is>
       </c>
     </row>
@@ -6603,17 +6733,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2547</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>15297.762</t>
+          <t>114.587</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6623,142 +6753,142 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>18.30</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>12.1</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>15.09</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>6434</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>133.0</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>275449485.0</t>
+          <t>-5607646.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>日勝生</t>
+          <t>年興</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6768,57 +6898,57 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.47</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>49.27%</t>
+          <t>11.83%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>24.39%</t>
+          <t>3.32%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>50.04</t>
+          <t>61.79</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>14750</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>日鼎水務-桃園污水下水道BOT24.35%、寶鼎-桃園水資源回收中心再18.59%、日勝生-板橋浮洲合宜住宅案14.40%、百貨13.29%、營業租賃11.02%、其他9.90%、飯店服務4.79%、營建工程2.46%、勞務1.14%、日勝生-新店美河市案0.06% (2023年)</t>
+          <t>成衣52.43%、紡織品46.20%、其他1.37% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>日勝生-建材營造-上市</t>
+          <t>年興-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>34.75</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6828,7 +6958,12 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>** 紡織 - 紡紗、織布、染整、成衣及其它家居紡織類品</t>
         </is>
       </c>
     </row>
@@ -6840,17 +6975,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10288.854</t>
+          <t>10138.939</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6860,17 +6995,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6880,7 +7015,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>33.4</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -6890,72 +7025,72 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>235.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -6970,7 +7105,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -6980,22 +7115,22 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>1248499381.0</t>
+          <t>485490424.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>遠東新</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -7005,57 +7140,57 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>19.52</t>
+          <t>18.05</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>24.79%</t>
+          <t>19.43%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>12.81%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>181.53</t>
+          <t>61.79</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>45135</t>
+          <t>180660</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
+          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>創見-半導體業-上市</t>
+          <t>遠東新-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>46.12</t>
+          <t>43.67</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7066,6 +7201,11 @@
       <c r="AU28" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>** 石化及塑橡膠 - 塑膠製品、PTA(對苯二甲酸)觸媒** 紡織 - 石化原料(例如純對苯二甲酸、乙二醇、己內醯胺、丙烯腈等)、人造纖維產品(例如尼龍纖維、聚酯纖維、嫘縈纖維等)、染整、成衣及其它家居紡織類品** 建材營造 - 建設業、工程承攬</t>
         </is>
       </c>
     </row>
@@ -7077,17 +7217,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20759.947</t>
+          <t>483.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7097,27 +7237,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>45.67</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>46.75</t>
+          <t>25.25</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7127,72 +7267,72 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>26.61</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>9552</t>
+          <t>687</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-1.76</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>236.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -7207,7 +7347,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -7217,82 +7357,82 @@
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>3817033821.0</t>
+          <t>20470.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>台翰</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>4.82%</t>
+          <t>16.16%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>-27.51%</t>
+          <t>8.80%</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>82.07</t>
+          <t>63.32</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>台翰-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>24.9</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7303,6 +7443,11 @@
       <c r="AU29" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 金屬、塑膠模具** 平面顯示器 - 塑膠框** 通信網路 - 塑膠/金屬機殼</t>
         </is>
       </c>
     </row>
@@ -7314,17 +7459,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1319</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1092.237</t>
+          <t>6967.388</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7334,27 +7479,27 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>-2.43</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>11.33</t>
+          <t>27.08</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>19.55</t>
+          <t>122.0</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -7364,72 +7509,72 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -7444,32 +7589,32 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>72829260.0</t>
+          <t>-966597023.0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>春源</t>
+          <t>東陽</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -7479,57 +7624,57 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>12.79</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>9.03%</t>
+          <t>34.51%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>19.30%</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>41.47</t>
+          <t>41.95</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>13666</t>
+          <t>79258</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
+          <t>自製-零組件84.81%、外購產品12.31%、其他2.88% (2024年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>春源-鋼鐵工業-上市</t>
+          <t>東陽-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>46.68</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
@@ -7540,6 +7685,11 @@
       <c r="AU30" t="inlineStr">
         <is>
           <t>Y</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>** 石化及塑橡膠 - 塑膠製品** 汽車 - 鈑金、引擎蓋、保險桿</t>
         </is>
       </c>
     </row>
@@ -7551,17 +7701,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>114.587</t>
+          <t>6215.838</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7571,27 +7721,27 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>20.15</t>
+          <t>44.05</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7601,72 +7751,72 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>38</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>8312</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -7676,37 +7826,37 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>-5607646.0</t>
+          <t>731650295.0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>年興</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -7716,57 +7866,57 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>18.56</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>11.83%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>3.32%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>62.73</t>
+          <t>19.6</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>4487</t>
+          <t>166688</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>成衣52.43%、紡織品46.20%、其他1.37% (2024年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>年興-紡織纖維-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>34.75</t>
+          <t>51.13</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
@@ -7776,955 +7926,12 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1402</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>10138.939</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>-0.14</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>9.82</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>33.4</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>4683</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>485490424.0</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>遠東新</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>13.22</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>18.32</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>19.43%</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>6.50%</t>
-        </is>
-      </c>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t>62.73</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>183336</t>
-        </is>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
-          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ32" t="inlineStr">
-        <is>
-          <t>遠東新-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AR32" t="inlineStr">
-        <is>
-          <t>紡織纖維右上</t>
-        </is>
-      </c>
-      <c r="AS32" t="inlineStr">
-        <is>
-          <t>43.67</t>
-        </is>
-      </c>
-      <c r="AT32" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU32" t="inlineStr">
-        <is>
           <t>Y</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1336</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>483.0</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>25.25</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>1413</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>-5.23</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>20470.0</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>台翰</t>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>12.29</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>16.16%</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>8.80%</t>
-        </is>
-      </c>
-      <c r="AN33" t="inlineStr">
-        <is>
-          <t>65.32</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="AP33" t="inlineStr">
-        <is>
-          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ33" t="inlineStr">
-        <is>
-          <t>台翰-電子零組件業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR33" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AS33" t="inlineStr">
-        <is>
-          <t>24.9</t>
-        </is>
-      </c>
-      <c r="AT33" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU33" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1319</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>6967.388</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-2.43</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>27.08</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>122.0</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>9.96</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>4197</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>-966597023.0</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>東陽</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>11.7</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>18.31</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>34.51%</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>19.30%</t>
-        </is>
-      </c>
-      <c r="AN34" t="inlineStr">
-        <is>
-          <t>43.57</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>80145</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
-          <t>自製-零組件84.81%、外購產品12.31%、其他2.88% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t>東陽-汽車工業-上市</t>
-        </is>
-      </c>
-      <c r="AR34" t="inlineStr">
-        <is>
-          <t>汽車工業右上</t>
-        </is>
-      </c>
-      <c r="AS34" t="inlineStr">
-        <is>
-          <t>46.68</t>
-        </is>
-      </c>
-      <c r="AT34" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>6215.838</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>12.17</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>44.05</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>15327</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>731650295.0</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>17.30%</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>15.00%</t>
-        </is>
-      </c>
-      <c r="AN35" t="inlineStr">
-        <is>
-          <t>19.84</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>167220</t>
-        </is>
-      </c>
-      <c r="AP35" t="inlineStr">
-        <is>
-          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ35" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="AS35" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="AT35" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU35" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
       </c>
     </row>
